--- a/cv_list.xlsx
+++ b/cv_list.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA214FE-4A43-4522-BFDB-3DC6E7B81CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3188DF68-6AFD-4A0D-9F58-D1B512275E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58380" yWindow="780" windowWidth="21600" windowHeight="11295" tabRatio="859" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35730" yWindow="300" windowWidth="21600" windowHeight="14475" tabRatio="859" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$E$2</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="196">
   <si>
     <t>HNG　ボイスリスト(暫定)　奇跡様</t>
     <rPh sb="11" eb="13">
@@ -1154,6 +1155,32 @@
   </si>
   <si>
     <t>とってもデレデレ　うれしそうに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際の音声</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とびら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンプリート機能作動中。本日の遊技は</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本日の遊技は終了しました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンプリート</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1250,7 +1277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1338,6 +1365,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1347,7 +1385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1452,6 +1490,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1761,7 +1805,7 @@
   <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3244,4 +3288,164 @@
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07954BE7-9340-41FD-B749-942919248F40}">
+  <dimension ref="B1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="65" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B13" s="36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B14" s="36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B15" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B16" s="35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="24" x14ac:dyDescent="0.4">
+      <c r="B19" s="13" t="s" ph="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="24" x14ac:dyDescent="0.4">
+      <c r="B20" s="13" t="s" ph="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B21" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B22" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="24" x14ac:dyDescent="0.4">
+      <c r="B23" s="13" t="s" ph="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="24" x14ac:dyDescent="0.4">
+      <c r="B24" s="13" t="s" ph="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="24" x14ac:dyDescent="0.4">
+      <c r="B25" s="13" t="s" ph="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="24" x14ac:dyDescent="0.4">
+      <c r="B26" s="13" t="s" ph="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>